--- a/biology/Zoologie/Heliconius_doris/Heliconius_doris.xlsx
+++ b/biology/Zoologie/Heliconius_doris/Heliconius_doris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius doris est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Heliconiinae. Elle est originaire d'Amérique latine.
 </t>
@@ -513,13 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Papillon
-L'imago d’Heliconius doris est un grand papillon aux ailes allongées et arrondies de couleur marron à bleu sombre suivant les sous-espèces, avec une ornementation de flaque de grosses taches blanches au centre des ailes antérieures, et aux ailes postérieures une partie basale soit orange, soit bleue.
+          <t>Papillon</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago d’Heliconius doris est un grand papillon aux ailes allongées et arrondies de couleur marron à bleu sombre suivant les sous-espèces, avec une ornementation de flaque de grosses taches blanches au centre des ailes antérieures, et aux ailes postérieures une partie basale soit orange, soit bleue.
 			Heliconius doris doris
 			Heliconius doris viridis
 			Heliconius doris viridis
-Chenille
-La chenille a la tête orange avec deux cornes noires ; son corps est blanc taché de noir[1].
 </t>
         </is>
       </c>
@@ -545,13 +560,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'imago a une durée de vie de plus de neuf mois[1].
-Les plantes hôtes sont des Passifloraceae, dont Passiflora ambigua[2].
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille a la tête orange avec deux cornes noires ; son corps est blanc taché de noir.
 </t>
         </is>
       </c>
@@ -577,13 +597,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Distribution et biotopes</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est répandue sur une aire allant du Mexique à la Bolivie[1] ; on la trouve notamment en Guyane, au Guyana, au Suriname, en Colombie, au Venezuela, au Honduras, au Panama, au Brésil, en Équateur et au Pérou[2].
-Elle réside dans les zones ensoleillées en lisière de la forêt, jusqu'à 1200 mètres d'altitude[1].
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago a une durée de vie de plus de neuf mois.
+Les plantes hôtes sont des Passifloraceae, dont Passiflora ambigua.
 </t>
         </is>
       </c>
@@ -609,12 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Nom vernaculaire</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est appelée Doris Longwing en anglais.
+          <t>Distribution et biotopes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est répandue sur une aire allant du Mexique à la Bolivie ; on la trouve notamment en Guyane, au Guyana, au Suriname, en Colombie, au Venezuela, au Honduras, au Panama, au Brésil, en Équateur et au Pérou.
+Elle réside dans les zones ensoleillées en lisière de la forêt, jusqu'à 1200 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -640,18 +665,88 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est appelée Doris Longwing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_doris</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_doris</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>L'espèce actuellement appelée Heliconius doris a été décrite par le naturaliste suédois Carl von Linné en 1771 sous le nom initial de Papilio doris[3]. Elle a longtemps été appelée Laparus doris. La localité type est le Suriname[2].
-Synonymie
-Selon FUNET Tree of Life  (10 septembre 2019)[2] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce actuellement appelée Heliconius doris a été décrite par le naturaliste suédois Carl von Linné en 1771 sous le nom initial de Papilio doris. Elle a longtemps été appelée Laparus doris. La localité type est le Suriname.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_doris</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_doris</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FUNET Tree of Life  (10 septembre 2019) :
 Papilio doris Linnaeus, 1771 — protonyme
-Papilio quirina Cramer, [1775]
-Papilio amathusia Cramer, [1777]
-Nerëis delila Hübner, [1813]
+Papilio quirina Cramer, 
+Papilio amathusia Cramer, 
+Nerëis delila Hübner, 
 Migonitis crenis Hübner, 1816
 Crenis brylle Hübner, 1821
 Heliconia dorimena Doubleday, 1847
@@ -667,12 +762,47 @@
 Heliconius doris doris ab. gibbsi Kaye, 1919
 Heliconius doris dialis Stichel, 1923
 Heliconius f. albescens Neustetter, 1926
-Sous-espèces
-Plusieurs sous-espèces sont reconnues[2] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Heliconius_doris</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_doris</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Plusieurs sous-espèces sont reconnues :
 Heliconius doris doris (Linnaeus, 1771) — en Guyane, en Guyana, au Suriname, en Colombie, en Bolivie, au Brésil et au Pérou.
 Heliconius doris obscurus Weymer, 1891 — en Colombie et en Équateur.
-Heliconius doris delila (Hübner, [1813])
-Heliconius doris viridis Staudinger, 1885 — du Mexique à Panama[4].
+Heliconius doris delila (Hübner, )
+Heliconius doris viridis Staudinger, 1885 — du Mexique à Panama.
 Heliconius doris dives (Oberthür, 1920) — au Venezuela et en Colombie.</t>
         </is>
       </c>
